--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.643452</v>
+      </c>
+      <c r="H2">
+        <v>1.930356</v>
+      </c>
+      <c r="I2">
+        <v>0.2431136893481813</v>
+      </c>
+      <c r="J2">
+        <v>0.2431136893481813</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.784813666666667</v>
-      </c>
-      <c r="H2">
-        <v>5.354441</v>
-      </c>
-      <c r="I2">
-        <v>0.3928052716376136</v>
-      </c>
-      <c r="J2">
-        <v>0.3928052716376136</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.0006086666666666668</v>
+        <v>0.03159966666666666</v>
       </c>
       <c r="N2">
-        <v>0.001826</v>
+        <v>0.09479899999999999</v>
       </c>
       <c r="O2">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479094</v>
       </c>
       <c r="P2">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479096</v>
       </c>
       <c r="Q2">
-        <v>0.001086356585111111</v>
+        <v>0.020332868716</v>
       </c>
       <c r="R2">
-        <v>0.009777209266</v>
+        <v>0.182995818444</v>
       </c>
       <c r="S2">
-        <v>0.0006898876827584281</v>
+        <v>0.01862205503045635</v>
       </c>
       <c r="T2">
-        <v>0.0006898876827584281</v>
+        <v>0.01862205503045635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.784813666666667</v>
+        <v>0.643452</v>
       </c>
       <c r="H3">
-        <v>5.354441</v>
+        <v>1.930356</v>
       </c>
       <c r="I3">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="J3">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.530076</v>
       </c>
       <c r="O3">
-        <v>0.5098453370267774</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="P3">
-        <v>0.5098453370267775</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="Q3">
-        <v>0.3153622963906666</v>
+        <v>0.113692820784</v>
       </c>
       <c r="R3">
-        <v>2.838260667516</v>
+        <v>1.023235387056</v>
       </c>
       <c r="S3">
-        <v>0.2002699361039739</v>
+        <v>0.1041266726687431</v>
       </c>
       <c r="T3">
-        <v>0.200269936103974</v>
+        <v>0.1041266726687431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.784813666666667</v>
+        <v>0.643452</v>
       </c>
       <c r="H4">
-        <v>5.354441</v>
+        <v>1.930356</v>
       </c>
       <c r="I4">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="J4">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1500206666666667</v>
+        <v>0.171462</v>
       </c>
       <c r="N4">
-        <v>0.450062</v>
+        <v>0.514386</v>
       </c>
       <c r="O4">
-        <v>0.4328851184979993</v>
+        <v>0.4156268306379609</v>
       </c>
       <c r="P4">
-        <v>0.4328851184979994</v>
+        <v>0.415626830637961</v>
       </c>
       <c r="Q4">
-        <v>0.2677589361491111</v>
+        <v>0.110327566824</v>
       </c>
       <c r="R4">
-        <v>2.409830425342</v>
+        <v>0.992948101416</v>
       </c>
       <c r="S4">
-        <v>0.1700395565594872</v>
+        <v>0.1010445721884864</v>
       </c>
       <c r="T4">
-        <v>0.1700395565594872</v>
+        <v>0.1010445721884864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.784813666666667</v>
+        <v>0.643452</v>
       </c>
       <c r="H5">
-        <v>5.354441</v>
+        <v>1.930356</v>
       </c>
       <c r="I5">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="J5">
-        <v>0.3928052716376136</v>
+        <v>0.2431136893481813</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01923866666666667</v>
+        <v>0.03278466666666666</v>
       </c>
       <c r="N5">
-        <v>0.057716</v>
+        <v>0.098354</v>
       </c>
       <c r="O5">
-        <v>0.05551323484148969</v>
+        <v>0.07947059465181013</v>
       </c>
       <c r="P5">
-        <v>0.0555132348414897</v>
+        <v>0.07947059465181014</v>
       </c>
       <c r="Q5">
-        <v>0.03433743519511111</v>
+        <v>0.021095359336</v>
       </c>
       <c r="R5">
-        <v>0.309036916756</v>
+        <v>0.189858234024</v>
       </c>
       <c r="S5">
-        <v>0.02180589129139399</v>
+        <v>0.0193203894604954</v>
       </c>
       <c r="T5">
-        <v>0.021805891291394</v>
+        <v>0.01932038946049541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1.735072</v>
       </c>
       <c r="I6">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J6">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.0006086666666666668</v>
+        <v>0.03159966666666666</v>
       </c>
       <c r="N6">
-        <v>0.001826</v>
+        <v>0.09479899999999999</v>
       </c>
       <c r="O6">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479094</v>
       </c>
       <c r="P6">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479096</v>
       </c>
       <c r="Q6">
-        <v>0.0003520268302222223</v>
+        <v>0.01827589894755556</v>
       </c>
       <c r="R6">
-        <v>0.003168241472000001</v>
+        <v>0.164483090528</v>
       </c>
       <c r="S6">
-        <v>0.000223553644815403</v>
+        <v>0.01673815931662551</v>
       </c>
       <c r="T6">
-        <v>0.0002235536448154031</v>
+        <v>0.01673815931662552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.735072</v>
       </c>
       <c r="I7">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J7">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.530076</v>
       </c>
       <c r="O7">
-        <v>0.5098453370267774</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="P7">
-        <v>0.5098453370267775</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="Q7">
         <v>0.1021911139413333</v>
@@ -883,10 +883,10 @@
         <v>0.919720025472</v>
       </c>
       <c r="S7">
-        <v>0.0648961784387566</v>
+        <v>0.09359272289707261</v>
       </c>
       <c r="T7">
-        <v>0.06489617843875661</v>
+        <v>0.09359272289707263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>1.735072</v>
       </c>
       <c r="I8">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J8">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1500206666666667</v>
+        <v>0.171462</v>
       </c>
       <c r="N8">
-        <v>0.450062</v>
+        <v>0.514386</v>
       </c>
       <c r="O8">
-        <v>0.4328851184979993</v>
+        <v>0.4156268306379609</v>
       </c>
       <c r="P8">
-        <v>0.4328851184979994</v>
+        <v>0.415626830637961</v>
       </c>
       <c r="Q8">
-        <v>0.08676555271822223</v>
+        <v>0.09916630508800001</v>
       </c>
       <c r="R8">
-        <v>0.780889974464</v>
+        <v>0.8924967457920001</v>
       </c>
       <c r="S8">
-        <v>0.05510021932799009</v>
+        <v>0.09082242236987449</v>
       </c>
       <c r="T8">
-        <v>0.0551002193279901</v>
+        <v>0.09082242236987451</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1.735072</v>
       </c>
       <c r="I9">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="J9">
-        <v>0.1272860095518501</v>
+        <v>0.2185191514957488</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01923866666666667</v>
+        <v>0.03278466666666666</v>
       </c>
       <c r="N9">
-        <v>0.057716</v>
+        <v>0.098354</v>
       </c>
       <c r="O9">
-        <v>0.05551323484148969</v>
+        <v>0.07947059465181013</v>
       </c>
       <c r="P9">
-        <v>0.0555132348414897</v>
+        <v>0.07947059465181014</v>
       </c>
       <c r="Q9">
-        <v>0.01112682395022222</v>
+        <v>0.01896125238755555</v>
       </c>
       <c r="R9">
-        <v>0.100141415552</v>
+        <v>0.170651271488</v>
       </c>
       <c r="S9">
-        <v>0.007066058140287952</v>
+        <v>0.01736584691217614</v>
       </c>
       <c r="T9">
-        <v>0.007066058140287954</v>
+        <v>0.01736584691217614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H10">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I10">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J10">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.0006086666666666668</v>
+        <v>0.03159966666666666</v>
       </c>
       <c r="N10">
-        <v>0.001826</v>
+        <v>0.09479899999999999</v>
       </c>
       <c r="O10">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479094</v>
       </c>
       <c r="P10">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479096</v>
       </c>
       <c r="Q10">
-        <v>0.0002850469184444445</v>
+        <v>0.008180479573777776</v>
       </c>
       <c r="R10">
-        <v>0.002565422266</v>
+        <v>0.07362431616399999</v>
       </c>
       <c r="S10">
-        <v>0.0001810182409148422</v>
+        <v>0.007492171563500979</v>
       </c>
       <c r="T10">
-        <v>0.0001810182409148422</v>
+        <v>0.00749217156350098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H11">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I11">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J11">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.530076</v>
       </c>
       <c r="O11">
-        <v>0.5098453370267774</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="P11">
-        <v>0.5098453370267775</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="Q11">
-        <v>0.08274727839066666</v>
+        <v>0.04574178937066666</v>
       </c>
       <c r="R11">
-        <v>0.744725505516</v>
+        <v>0.411676104336</v>
       </c>
       <c r="S11">
-        <v>0.052548425559242</v>
+        <v>0.04189306146366887</v>
       </c>
       <c r="T11">
-        <v>0.052548425559242</v>
+        <v>0.04189306146366888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H12">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I12">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J12">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1500206666666667</v>
+        <v>0.171462</v>
       </c>
       <c r="N12">
-        <v>0.450062</v>
+        <v>0.514386</v>
       </c>
       <c r="O12">
-        <v>0.4328851184979993</v>
+        <v>0.4156268306379609</v>
       </c>
       <c r="P12">
-        <v>0.4328851184979994</v>
+        <v>0.415626830637961</v>
       </c>
       <c r="Q12">
-        <v>0.07025672848244445</v>
+        <v>0.04438785394399999</v>
       </c>
       <c r="R12">
-        <v>0.632310556342</v>
+        <v>0.399490685496</v>
       </c>
       <c r="S12">
-        <v>0.04461633709891331</v>
+        <v>0.04065304657077622</v>
       </c>
       <c r="T12">
-        <v>0.04461633709891331</v>
+        <v>0.04065304657077622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4683136666666667</v>
+        <v>0.2588786666666666</v>
       </c>
       <c r="H13">
-        <v>1.404941</v>
+        <v>0.776636</v>
       </c>
       <c r="I13">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="J13">
-        <v>0.103067384838085</v>
+        <v>0.09781141055878506</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01923866666666667</v>
+        <v>0.03278466666666666</v>
       </c>
       <c r="N13">
-        <v>0.057716</v>
+        <v>0.098354</v>
       </c>
       <c r="O13">
-        <v>0.05551323484148969</v>
+        <v>0.07947059465181013</v>
       </c>
       <c r="P13">
-        <v>0.0555132348414897</v>
+        <v>0.07947059465181014</v>
       </c>
       <c r="Q13">
-        <v>0.009009730528444445</v>
+        <v>0.008487250793777776</v>
       </c>
       <c r="R13">
-        <v>0.08108757475600001</v>
+        <v>0.07638525714399999</v>
       </c>
       <c r="S13">
-        <v>0.005721603939014805</v>
+        <v>0.007773130960838989</v>
       </c>
       <c r="T13">
-        <v>0.005721603939014805</v>
+        <v>0.00777313096083899</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H14">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I14">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J14">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.0006086666666666668</v>
+        <v>0.03159966666666666</v>
       </c>
       <c r="N14">
-        <v>0.001826</v>
+        <v>0.09479899999999999</v>
       </c>
       <c r="O14">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479094</v>
       </c>
       <c r="P14">
-        <v>0.001756309633733457</v>
+        <v>0.07659813431479096</v>
       </c>
       <c r="Q14">
-        <v>0.001042206136888889</v>
+        <v>0.03684598025855555</v>
       </c>
       <c r="R14">
-        <v>0.009379855232</v>
+        <v>0.331613822327</v>
       </c>
       <c r="S14">
-        <v>0.0006618500652447832</v>
+        <v>0.0337457484042081</v>
       </c>
       <c r="T14">
-        <v>0.0006618500652447832</v>
+        <v>0.0337457484042081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H15">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I15">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J15">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.530076</v>
       </c>
       <c r="O15">
-        <v>0.5098453370267774</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="P15">
-        <v>0.5098453370267775</v>
+        <v>0.428304440395438</v>
       </c>
       <c r="Q15">
-        <v>0.3025457065813333</v>
+        <v>0.2060271715053333</v>
       </c>
       <c r="R15">
-        <v>2.722911359232</v>
+        <v>1.854244543548</v>
       </c>
       <c r="S15">
-        <v>0.1921307969248048</v>
+        <v>0.1886919833659534</v>
       </c>
       <c r="T15">
-        <v>0.1921307969248048</v>
+        <v>0.1886919833659534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H16">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I16">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J16">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1500206666666667</v>
+        <v>0.171462</v>
       </c>
       <c r="N16">
-        <v>0.450062</v>
+        <v>0.514386</v>
       </c>
       <c r="O16">
-        <v>0.4328851184979993</v>
+        <v>0.4156268306379609</v>
       </c>
       <c r="P16">
-        <v>0.4328851184979994</v>
+        <v>0.415626830637961</v>
       </c>
       <c r="Q16">
-        <v>0.2568769870648889</v>
+        <v>0.199928864242</v>
       </c>
       <c r="R16">
-        <v>2.311892883584</v>
+        <v>1.799359778178</v>
       </c>
       <c r="S16">
-        <v>0.1631290055116087</v>
+        <v>0.1831067895088238</v>
       </c>
       <c r="T16">
-        <v>0.1631290055116087</v>
+        <v>0.1831067895088238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.712277333333333</v>
+        <v>1.166024333333333</v>
       </c>
       <c r="H17">
-        <v>5.136832</v>
+        <v>3.498073</v>
       </c>
       <c r="I17">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="J17">
-        <v>0.3768413339724513</v>
+        <v>0.4405557485972849</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01923866666666667</v>
+        <v>0.03278466666666666</v>
       </c>
       <c r="N17">
-        <v>0.057716</v>
+        <v>0.098354</v>
       </c>
       <c r="O17">
-        <v>0.05551323484148969</v>
+        <v>0.07947059465181013</v>
       </c>
       <c r="P17">
-        <v>0.0555132348414897</v>
+        <v>0.07947059465181014</v>
       </c>
       <c r="Q17">
-        <v>0.03294193285688889</v>
+        <v>0.03822771909355555</v>
       </c>
       <c r="R17">
-        <v>0.296477395712</v>
+        <v>0.344049471842</v>
       </c>
       <c r="S17">
-        <v>0.02091968147079293</v>
+        <v>0.03501122731829959</v>
       </c>
       <c r="T17">
-        <v>0.02091968147079294</v>
+        <v>0.0350112273182996</v>
       </c>
     </row>
   </sheetData>
